--- a/T1.xlsx
+++ b/T1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skylancer T2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skylancer T2\Desktop\HH_research_TOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464DF0A4-3B29-4DB5-BC45-2D56E9B06244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F92D6-6A60-41FE-BAF4-D1D76CA630E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31C1DC35-7A05-4E7D-ACBF-E7F3B421B04E}"/>
   </bookViews>
@@ -31,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>new day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have an interiew to day! </t>
+  </si>
+  <si>
+    <t>aother life is epicurean  ??</t>
   </si>
 </sst>
 </file>
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,17 +392,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF057842-190E-4313-B9C7-799C2D8DD714}">
-  <dimension ref="C4"/>
+  <dimension ref="C4:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44342</v>
       </c>
     </row>
   </sheetData>
